--- a/2025_05_Time_Series/sg194/timeseries_metadata_194.xlsx
+++ b/2025_05_Time_Series/sg194/timeseries_metadata_194.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia\Seagliders\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD33E26-4E62-4F62-B823-FACC42BDF759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3B035-2A48-429C-9DD2-BDED40EB6EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D5509DB6-473B-4518-ABB0-459F412BDEB9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Program</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The glider struggled with strong currents to the North throughout the mission. As a result, the glider was held at the East Target multiple times to avoid being pulled too far North. </t>
   </si>
 </sst>
 </file>
@@ -257,19 +260,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17638A39-2D0A-468F-B9F1-C1C1BA7F16D9}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,10 +629,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -648,7 +648,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -664,7 +664,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>194</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -732,11 +732,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -789,48 +789,50 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>45574</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
